--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/26_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/26_11R22.xlsx
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1331171958662623</v>
+        <v>0.03373424679310021</v>
       </c>
       <c r="E2">
-        <v>0.005823602207493439</v>
+        <v>0.008895952531404664</v>
       </c>
       <c r="F2">
-        <v>0.146611740865868</v>
+        <v>0.1259534787987507</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.06027633077061059</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002099616502679679</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -689,55 +689,55 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.03181526779498291</v>
       </c>
       <c r="L2">
-        <v>0.03594461592664443</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0184067265993822</v>
+        <v>0.02323563349354808</v>
       </c>
       <c r="N2">
-        <v>0.1421412447461528</v>
+        <v>0.1567664385584079</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.1199721957677976</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.008229322667934798</v>
       </c>
       <c r="Q2">
-        <v>0.01349153145915159</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.04773208950185645</v>
+        <v>0.02195164317960473</v>
       </c>
       <c r="S2">
-        <v>0.1401666395175499</v>
+        <v>0.0677963170905146</v>
       </c>
       <c r="T2">
-        <v>0.01226389577420914</v>
+        <v>0.0449342370975862</v>
       </c>
       <c r="U2">
-        <v>0.03823009365066198</v>
+        <v>0.06276749023045489</v>
       </c>
       <c r="V2">
-        <v>0.06638765525501385</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.02137546217872988</v>
+        <v>0.1034528553846429</v>
       </c>
       <c r="X2">
-        <v>0.05402735103370124</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.03616602440498234</v>
       </c>
       <c r="Z2">
-        <v>0.1242801554173228</v>
+        <v>0.03352264316539367</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.05843030576760371</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1322594850399036</v>
+        <v>0.004899149253466266</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.04798843982795493</v>
       </c>
       <c r="F3">
-        <v>0.1406990439050197</v>
+        <v>0.03255567058952326</v>
       </c>
       <c r="G3">
-        <v>0.01019179423398317</v>
+        <v>0.1292801437445832</v>
       </c>
       <c r="H3">
-        <v>0.002963224719556238</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -796,55 +796,55 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01447508640488532</v>
       </c>
       <c r="L3">
-        <v>0.03602714371673011</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01217629409720651</v>
       </c>
       <c r="N3">
-        <v>0.1602398646078278</v>
+        <v>0.09079613433649801</v>
       </c>
       <c r="O3">
-        <v>0.00587677650074706</v>
+        <v>0.1585624298900134</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.00781303421535179</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.02890868380355639</v>
       </c>
       <c r="S3">
-        <v>0.1908142222560892</v>
+        <v>0.04504486995337392</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.09803606256747387</v>
       </c>
       <c r="U3">
-        <v>0.07888585070747095</v>
+        <v>0.03411356418100803</v>
       </c>
       <c r="V3">
-        <v>0.004690765684915261</v>
+        <v>0.007388114165431996</v>
       </c>
       <c r="W3">
-        <v>0.09644656129453208</v>
+        <v>0.1139230798559205</v>
       </c>
       <c r="X3">
-        <v>0.01762989566923217</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.004309507020818002</v>
+        <v>0.04307632747901621</v>
       </c>
       <c r="Z3">
-        <v>0.1046637898627124</v>
+        <v>0.0124686274500386</v>
       </c>
       <c r="AA3">
-        <v>0.006489040565110397</v>
+        <v>0.117588223324225</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.008719099075824552</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -882,16 +882,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06663486524591113</v>
+        <v>0.1186713838497404</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1727373926859226</v>
+        <v>0.1565151117193819</v>
       </c>
       <c r="G4">
-        <v>0.02557076284951977</v>
+        <v>0.02246164065308257</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -903,58 +903,58 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002449898481586343</v>
+        <v>0.007779532937022909</v>
       </c>
       <c r="L4">
-        <v>0.03385597157904392</v>
+        <v>0.008603292412191831</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1918617609668229</v>
+        <v>0.1899559514223138</v>
       </c>
       <c r="O4">
-        <v>0.0322600932851816</v>
+        <v>0.03084554497182974</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.009909929082422919</v>
       </c>
       <c r="Q4">
-        <v>0.0201666074228898</v>
+        <v>0.006968319289115441</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1551396586254308</v>
+        <v>0.1422567847515074</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0949170166081893</v>
+        <v>0.08584533921063521</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.07447265087109206</v>
+        <v>0.0965477908901546</v>
       </c>
       <c r="X4">
-        <v>0.02090400901499286</v>
+        <v>0.008405591814484119</v>
       </c>
       <c r="Y4">
-        <v>0.01274682718887407</v>
+        <v>0.007240831953941158</v>
       </c>
       <c r="Z4">
-        <v>0.08578713501260242</v>
+        <v>0.08683344216520401</v>
       </c>
       <c r="AA4">
-        <v>0.01012534439722046</v>
+        <v>0.01685791908637498</v>
       </c>
       <c r="AB4">
-        <v>0.0003700057647198986</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.004301593790597314</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02973020990429905</v>
+        <v>0.009994144873789797</v>
       </c>
       <c r="E5">
-        <v>0.02537520941719335</v>
+        <v>0.03182679185364586</v>
       </c>
       <c r="F5">
-        <v>0.1431374812087675</v>
+        <v>0.07450157781018553</v>
       </c>
       <c r="G5">
-        <v>0.03483576522052386</v>
+        <v>0.1243519782835704</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.006013597174406938</v>
       </c>
       <c r="K5">
-        <v>0.02147117435759112</v>
+        <v>0.01774958284671379</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.03323073099509084</v>
+        <v>0.02679513490948662</v>
       </c>
       <c r="N5">
-        <v>0.1367198572579337</v>
+        <v>0.09625087777410912</v>
       </c>
       <c r="O5">
-        <v>0.08794296524575976</v>
+        <v>0.143575947248609</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1031,37 +1031,37 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.01985352390781638</v>
       </c>
       <c r="S5">
-        <v>0.1376866995076497</v>
+        <v>0.07144232988702499</v>
       </c>
       <c r="T5">
-        <v>0.02930544316053927</v>
+        <v>0.07591327021703495</v>
       </c>
       <c r="U5">
-        <v>0.07749576014494995</v>
+        <v>0.05187726826550623</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.09873724827680609</v>
+        <v>0.1142755454469258</v>
       </c>
       <c r="X5">
-        <v>0.001058114437597048</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02616611974039606</v>
+        <v>0.04997193774663239</v>
       </c>
       <c r="Z5">
-        <v>0.07762778566850162</v>
+        <v>0.01452307714099922</v>
       </c>
       <c r="AA5">
-        <v>0.03902588647276124</v>
+        <v>0.06759602727793704</v>
       </c>
       <c r="AB5">
-        <v>0.0004535489836398096</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.0008512401139036754</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.002636147221702404</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09315088171296432</v>
+        <v>0.02343409353473271</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.04243189428985465</v>
       </c>
       <c r="F6">
-        <v>0.1548668062577585</v>
+        <v>0.0494146561665318</v>
       </c>
       <c r="G6">
-        <v>0.02824288946482174</v>
+        <v>0.1197534761524768</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1114,22 +1114,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.005410084460050868</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.01059705375124616</v>
       </c>
       <c r="L6">
-        <v>0.02860327889003974</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02510485661277741</v>
       </c>
       <c r="N6">
-        <v>0.1295439262458098</v>
+        <v>0.08377134118685571</v>
       </c>
       <c r="O6">
-        <v>0.04095276189164863</v>
+        <v>0.1545931038239406</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1138,34 +1138,34 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.02096524179030301</v>
       </c>
       <c r="S6">
-        <v>0.1631654012846804</v>
+        <v>0.05888288863010922</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.1054726598227592</v>
       </c>
       <c r="U6">
-        <v>0.1118037266411649</v>
+        <v>0.0255083195656281</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.0006688402084728973</v>
       </c>
       <c r="W6">
-        <v>0.1166085519814386</v>
+        <v>0.1134972573498347</v>
       </c>
       <c r="X6">
-        <v>0.005560601891444221</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.03360123739185195</v>
+        <v>0.0472838060495639</v>
       </c>
       <c r="Z6">
-        <v>0.06844750439368316</v>
+        <v>0.008972351465707414</v>
       </c>
       <c r="AA6">
-        <v>0.02545243195269409</v>
+        <v>0.1008157199030372</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.003422355236117504</v>
       </c>
     </row>
   </sheetData>
@@ -1323,100 +1323,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1331171958662623</v>
+        <v>0.03373424679310021</v>
       </c>
       <c r="E2">
-        <v>0.1389407980737557</v>
+        <v>0.04263019932450487</v>
       </c>
       <c r="F2">
-        <v>0.2855525389396237</v>
+        <v>0.1685836781232555</v>
       </c>
       <c r="G2">
-        <v>0.2855525389396237</v>
+        <v>0.2288600088938661</v>
       </c>
       <c r="H2">
-        <v>0.2855525389396237</v>
+        <v>0.2309596253965458</v>
       </c>
       <c r="I2">
-        <v>0.2855525389396237</v>
+        <v>0.2309596253965458</v>
       </c>
       <c r="J2">
-        <v>0.2855525389396237</v>
+        <v>0.2309596253965458</v>
       </c>
       <c r="K2">
-        <v>0.2855525389396237</v>
+        <v>0.2627748931915287</v>
       </c>
       <c r="L2">
-        <v>0.3214971548662682</v>
+        <v>0.2627748931915287</v>
       </c>
       <c r="M2">
-        <v>0.3399038814656504</v>
+        <v>0.2860105266850768</v>
       </c>
       <c r="N2">
-        <v>0.4820451262118032</v>
+        <v>0.4427769652434846</v>
       </c>
       <c r="O2">
-        <v>0.4820451262118032</v>
+        <v>0.5627491610112823</v>
       </c>
       <c r="P2">
-        <v>0.4820451262118032</v>
+        <v>0.570978483679217</v>
       </c>
       <c r="Q2">
-        <v>0.4955366576709548</v>
+        <v>0.570978483679217</v>
       </c>
       <c r="R2">
-        <v>0.5432687471728113</v>
+        <v>0.5929301268588217</v>
       </c>
       <c r="S2">
-        <v>0.6834353866903612</v>
+        <v>0.6607264439493363</v>
       </c>
       <c r="T2">
-        <v>0.6956992824645704</v>
+        <v>0.7056606810469225</v>
       </c>
       <c r="U2">
-        <v>0.7339293761152323</v>
+        <v>0.7684281712773774</v>
       </c>
       <c r="V2">
-        <v>0.8003170313702462</v>
+        <v>0.7684281712773774</v>
       </c>
       <c r="W2">
-        <v>0.8216924935489761</v>
+        <v>0.8718810266620203</v>
       </c>
       <c r="X2">
-        <v>0.8757198445826774</v>
+        <v>0.8718810266620203</v>
       </c>
       <c r="Y2">
-        <v>0.8757198445826774</v>
+        <v>0.9080470510670026</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9415696942323962</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1430,100 +1430,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1322594850399036</v>
+        <v>0.004899149253466266</v>
       </c>
       <c r="E3">
-        <v>0.1322594850399036</v>
+        <v>0.05288758908142119</v>
       </c>
       <c r="F3">
-        <v>0.2729585289449233</v>
+        <v>0.08544325967094446</v>
       </c>
       <c r="G3">
-        <v>0.2831503231789065</v>
+        <v>0.2147234034155276</v>
       </c>
       <c r="H3">
-        <v>0.2861135478984627</v>
+        <v>0.2147234034155276</v>
       </c>
       <c r="I3">
-        <v>0.2861135478984627</v>
+        <v>0.2147234034155276</v>
       </c>
       <c r="J3">
-        <v>0.2861135478984627</v>
+        <v>0.2147234034155276</v>
       </c>
       <c r="K3">
-        <v>0.2861135478984627</v>
+        <v>0.229198489820413</v>
       </c>
       <c r="L3">
-        <v>0.3221406916151928</v>
+        <v>0.229198489820413</v>
       </c>
       <c r="M3">
-        <v>0.3221406916151928</v>
+        <v>0.2413747839176195</v>
       </c>
       <c r="N3">
-        <v>0.4823805562230206</v>
+        <v>0.3321709182541175</v>
       </c>
       <c r="O3">
-        <v>0.4882573327237677</v>
+        <v>0.4907333481441308</v>
       </c>
       <c r="P3">
-        <v>0.4882573327237677</v>
+        <v>0.4907333481441308</v>
       </c>
       <c r="Q3">
-        <v>0.4960703669391195</v>
+        <v>0.4907333481441308</v>
       </c>
       <c r="R3">
-        <v>0.4960703669391195</v>
+        <v>0.5196420319476872</v>
       </c>
       <c r="S3">
-        <v>0.6868845891952087</v>
+        <v>0.5646869019010612</v>
       </c>
       <c r="T3">
-        <v>0.6868845891952087</v>
+        <v>0.6627229644685351</v>
       </c>
       <c r="U3">
-        <v>0.7657704399026797</v>
+        <v>0.6968365286495432</v>
       </c>
       <c r="V3">
-        <v>0.7704612055875949</v>
+        <v>0.7042246428149751</v>
       </c>
       <c r="W3">
-        <v>0.866907766882127</v>
+        <v>0.8181477226708956</v>
       </c>
       <c r="X3">
-        <v>0.8845376625513591</v>
+        <v>0.8181477226708956</v>
       </c>
       <c r="Y3">
-        <v>0.8888471695721771</v>
+        <v>0.8612240501499119</v>
       </c>
       <c r="Z3">
-        <v>0.9935109594348895</v>
+        <v>0.8736926775999505</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999999</v>
+        <v>0.9912809009241755</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>0.9912809009241755</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>0.9912809009241755</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>0.9912809009241755</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>0.9912809009241755</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>0.9912809009241755</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.9912809009241755</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.9912809009241755</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1537,94 +1537,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06663486524591113</v>
+        <v>0.1186713838497404</v>
       </c>
       <c r="E4">
-        <v>0.06663486524591113</v>
+        <v>0.1186713838497404</v>
       </c>
       <c r="F4">
-        <v>0.2393722579318338</v>
+        <v>0.2751864955691223</v>
       </c>
       <c r="G4">
-        <v>0.2649430207813535</v>
+        <v>0.2976481362222049</v>
       </c>
       <c r="H4">
-        <v>0.2649430207813535</v>
+        <v>0.2976481362222049</v>
       </c>
       <c r="I4">
-        <v>0.2649430207813535</v>
+        <v>0.2976481362222049</v>
       </c>
       <c r="J4">
-        <v>0.2649430207813535</v>
+        <v>0.2976481362222049</v>
       </c>
       <c r="K4">
-        <v>0.2673929192629398</v>
+        <v>0.3054276691592278</v>
       </c>
       <c r="L4">
-        <v>0.3012488908419838</v>
+        <v>0.3140309615714196</v>
       </c>
       <c r="M4">
-        <v>0.3012488908419838</v>
+        <v>0.3140309615714196</v>
       </c>
       <c r="N4">
-        <v>0.4931106518088066</v>
+        <v>0.5039869129937333</v>
       </c>
       <c r="O4">
-        <v>0.5253707450939883</v>
+        <v>0.5348324579655631</v>
       </c>
       <c r="P4">
-        <v>0.5253707450939883</v>
+        <v>0.5447423870479861</v>
       </c>
       <c r="Q4">
-        <v>0.5455373525168781</v>
+        <v>0.5517107063371015</v>
       </c>
       <c r="R4">
-        <v>0.5455373525168781</v>
+        <v>0.5517107063371015</v>
       </c>
       <c r="S4">
-        <v>0.7006770111423088</v>
+        <v>0.6939674910886089</v>
       </c>
       <c r="T4">
-        <v>0.7006770111423088</v>
+        <v>0.6939674910886089</v>
       </c>
       <c r="U4">
-        <v>0.7955940277504981</v>
+        <v>0.7798128302992441</v>
       </c>
       <c r="V4">
-        <v>0.7955940277504981</v>
+        <v>0.7798128302992441</v>
       </c>
       <c r="W4">
-        <v>0.8700666786215903</v>
+        <v>0.8763606211893987</v>
       </c>
       <c r="X4">
-        <v>0.8909706876365832</v>
+        <v>0.8847662130038828</v>
       </c>
       <c r="Y4">
-        <v>0.9037175148254573</v>
+        <v>0.892007044957824</v>
       </c>
       <c r="Z4">
-        <v>0.9895046498380596</v>
+        <v>0.9788404871230281</v>
       </c>
       <c r="AA4">
-        <v>0.9996299942352801</v>
+        <v>0.9956984062094031</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9956984062094031</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9956984062094031</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9956984062094031</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9956984062094031</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9956984062094031</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9956984062094031</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -1644,97 +1644,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02973020990429905</v>
+        <v>0.009994144873789797</v>
       </c>
       <c r="E5">
-        <v>0.0551054193214924</v>
+        <v>0.04182093672743566</v>
       </c>
       <c r="F5">
-        <v>0.1982429005302599</v>
+        <v>0.1163225145376212</v>
       </c>
       <c r="G5">
-        <v>0.2330786657507838</v>
+        <v>0.2406744928211916</v>
       </c>
       <c r="H5">
-        <v>0.2330786657507838</v>
+        <v>0.2406744928211916</v>
       </c>
       <c r="I5">
-        <v>0.2330786657507838</v>
+        <v>0.2406744928211916</v>
       </c>
       <c r="J5">
-        <v>0.2330786657507838</v>
+        <v>0.2466880899955985</v>
       </c>
       <c r="K5">
-        <v>0.2545498401083749</v>
+        <v>0.2644376728423123</v>
       </c>
       <c r="L5">
-        <v>0.2545498401083749</v>
+        <v>0.2644376728423123</v>
       </c>
       <c r="M5">
-        <v>0.2877805711034658</v>
+        <v>0.2912328077517989</v>
       </c>
       <c r="N5">
-        <v>0.4245004283613995</v>
+        <v>0.387483685525908</v>
       </c>
       <c r="O5">
-        <v>0.5124433936071593</v>
+        <v>0.5310596327745171</v>
       </c>
       <c r="P5">
-        <v>0.5124433936071593</v>
+        <v>0.5310596327745171</v>
       </c>
       <c r="Q5">
-        <v>0.5124433936071593</v>
+        <v>0.5310596327745171</v>
       </c>
       <c r="R5">
-        <v>0.5124433936071593</v>
+        <v>0.5509131566823334</v>
       </c>
       <c r="S5">
-        <v>0.650130093114809</v>
+        <v>0.6223554865693585</v>
       </c>
       <c r="T5">
-        <v>0.6794355362753483</v>
+        <v>0.6982687567863934</v>
       </c>
       <c r="U5">
-        <v>0.7569312964202982</v>
+        <v>0.7501460250518996</v>
       </c>
       <c r="V5">
-        <v>0.7569312964202982</v>
+        <v>0.7501460250518996</v>
       </c>
       <c r="W5">
-        <v>0.8556685446971043</v>
+        <v>0.8644215704988254</v>
       </c>
       <c r="X5">
-        <v>0.8567266591347014</v>
+        <v>0.8644215704988254</v>
       </c>
       <c r="Y5">
-        <v>0.8828927788750974</v>
+        <v>0.9143935082454577</v>
       </c>
       <c r="Z5">
-        <v>0.960520564543599</v>
+        <v>0.9289165853864569</v>
       </c>
       <c r="AA5">
-        <v>0.9995464510163603</v>
+        <v>0.9965126126643939</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9965126126643939</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9965126126643939</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9965126126643939</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9973638527782976</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9973638527782976</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9973638527782976</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9973638527782976</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09315088171296432</v>
+        <v>0.02343409353473271</v>
       </c>
       <c r="E6">
-        <v>0.09315088171296432</v>
+        <v>0.06586598782458736</v>
       </c>
       <c r="F6">
-        <v>0.2480176879707228</v>
+        <v>0.1152806439911191</v>
       </c>
       <c r="G6">
-        <v>0.2762605774355446</v>
+        <v>0.2350341201435959</v>
       </c>
       <c r="H6">
-        <v>0.2762605774355446</v>
+        <v>0.2350341201435959</v>
       </c>
       <c r="I6">
-        <v>0.2762605774355446</v>
+        <v>0.2350341201435959</v>
       </c>
       <c r="J6">
-        <v>0.2762605774355446</v>
+        <v>0.2404442046036468</v>
       </c>
       <c r="K6">
-        <v>0.2762605774355446</v>
+        <v>0.2510412583548929</v>
       </c>
       <c r="L6">
-        <v>0.3048638563255843</v>
+        <v>0.2510412583548929</v>
       </c>
       <c r="M6">
-        <v>0.3048638563255843</v>
+        <v>0.2761461149676703</v>
       </c>
       <c r="N6">
-        <v>0.4344077825713941</v>
+        <v>0.359917456154526</v>
       </c>
       <c r="O6">
-        <v>0.4753605444630428</v>
+        <v>0.5145105599784666</v>
       </c>
       <c r="P6">
-        <v>0.4753605444630428</v>
+        <v>0.5145105599784666</v>
       </c>
       <c r="Q6">
-        <v>0.4753605444630428</v>
+        <v>0.5145105599784666</v>
       </c>
       <c r="R6">
-        <v>0.4753605444630428</v>
+        <v>0.5354758017687696</v>
       </c>
       <c r="S6">
-        <v>0.6385259457477233</v>
+        <v>0.5943586903988789</v>
       </c>
       <c r="T6">
-        <v>0.6385259457477233</v>
+        <v>0.6998313502216381</v>
       </c>
       <c r="U6">
-        <v>0.7503296723888881</v>
+        <v>0.7253396697872662</v>
       </c>
       <c r="V6">
-        <v>0.7503296723888881</v>
+        <v>0.7260085099957391</v>
       </c>
       <c r="W6">
-        <v>0.8669382243703267</v>
+        <v>0.8395057673455738</v>
       </c>
       <c r="X6">
-        <v>0.872498826261771</v>
+        <v>0.8395057673455738</v>
       </c>
       <c r="Y6">
-        <v>0.9061000636536229</v>
+        <v>0.8867895733951378</v>
       </c>
       <c r="Z6">
-        <v>0.9745475680473061</v>
+        <v>0.8957619248608452</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9965776447638823</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9965776447638823</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9965776447638823</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9965776447638823</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9965776447638823</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9965776447638823</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9965776447638823</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9965776447638823</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1909,19 +1909,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03373424679310021</v>
       </c>
       <c r="F2">
-        <v>0.5432687471728113</v>
+        <v>0.5627491610112823</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -1950,19 +1950,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6868845891952087</v>
+        <v>0.5196420319476872</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -1994,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5253707450939883</v>
+        <v>0.5039869129937333</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -2032,19 +2032,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.009994144873789797</v>
       </c>
       <c r="F5">
-        <v>0.5124433936071593</v>
+        <v>0.5310596327745171</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -2073,19 +2073,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6385259457477233</v>
+        <v>0.5145105599784666</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>26</v>
@@ -2168,19 +2168,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03373424679310021</v>
       </c>
       <c r="F2">
-        <v>0.7339293761152323</v>
+        <v>0.7056606810469225</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -2209,16 +2209,16 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7657704399026797</v>
+        <v>0.7042246428149751</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7006770111423088</v>
+        <v>0.7798128302992441</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -2291,19 +2291,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.009994144873789797</v>
       </c>
       <c r="F5">
-        <v>0.7569312964202982</v>
+        <v>0.7501460250518996</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -2332,7 +2332,7 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -2341,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7503296723888881</v>
+        <v>0.7253396697872662</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>26</v>
@@ -2427,19 +2427,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03373424679310021</v>
       </c>
       <c r="F2">
-        <v>0.8003170313702462</v>
+        <v>0.8718810266620203</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -2468,7 +2468,7 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>22</v>
@@ -2477,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.866907766882127</v>
+        <v>0.8181477226708956</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8700666786215903</v>
+        <v>0.8763606211893987</v>
       </c>
       <c r="G4">
         <v>21</v>
@@ -2550,19 +2550,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.009994144873789797</v>
       </c>
       <c r="F5">
-        <v>0.8556685446971043</v>
+        <v>0.8644215704988254</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -2591,7 +2591,7 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>22</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8669382243703267</v>
+        <v>0.8395057673455738</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>26</v>
@@ -2686,19 +2686,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03373424679310021</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9080470510670026</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -2727,16 +2727,16 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9935109594348895</v>
+        <v>0.9912809009241755</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9788404871230281</v>
+      </c>
+      <c r="G4">
         <v>24</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9037175148254573</v>
-      </c>
-      <c r="G4">
-        <v>23</v>
       </c>
       <c r="H4">
         <v>26</v>
@@ -2809,19 +2809,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.009994144873789797</v>
       </c>
       <c r="F5">
-        <v>0.960520564543599</v>
+        <v>0.9143935082454577</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>26</v>
@@ -2850,19 +2850,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9965776447638823</v>
+      </c>
+      <c r="G6">
         <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9061000636536229</v>
-      </c>
-      <c r="G6">
-        <v>23</v>
       </c>
       <c r="H6">
         <v>26</v>
